--- a/writting/学科知识体系/足球情报收集.xlsx
+++ b/writting/学科知识体系/足球情报收集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="7595"/>
+    <workbookView windowWidth="22943" windowHeight="9815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>windrawwin.com</t>
   </si>
@@ -42,16 +42,19 @@
   <si>
     <t>Superprostici: http://www.superpronostici.it best site for the Serie A while for the other championships a little less.</t>
   </si>
+  <si>
+    <t>soccerstats.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -59,6 +62,59 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,46 +126,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,23 +144,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,52 +173,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,187 +218,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,6 +409,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -426,15 +453,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -444,17 +462,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,15 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,139 +523,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -979,13 +982,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="11.712962962963" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1030,6 +1036,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/writting/学科知识体系/足球情报收集.xlsx
+++ b/writting/学科知识体系/足球情报收集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9815"/>
+    <workbookView windowWidth="21495" windowHeight="10290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,22 +66,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,9 +95,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,14 +120,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,9 +149,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,66 +173,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -218,187 +218,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,15 +409,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,17 +427,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,11 +456,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,17 +501,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,139 +523,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,12 +985,12 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="11.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/writting/学科知识体系/足球情报收集.xlsx
+++ b/writting/学科知识体系/足球情报收集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10290"/>
+    <workbookView windowWidth="21495" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>windrawwin.com</t>
   </si>
@@ -44,6 +44,33 @@
   </si>
   <si>
     <t>soccerstats.com</t>
+  </si>
+  <si>
+    <t>https://www.bettingclosed.com/predictions/american/copa-libertadores</t>
+  </si>
+  <si>
+    <t>https://www.dratings.com/predictor/international-football/south-american-football/copa-libertadores-predictions/</t>
+  </si>
+  <si>
+    <t>https://www.windrawwin.com/statistics/full-time-scores/</t>
+  </si>
+  <si>
+    <t>http://www.betdevil.com/soccer/competition/USA-MLS/45/</t>
+  </si>
+  <si>
+    <t>https://fivethirtyeight.com/features/in-126-years-english-football-has-seen-13475-nil-nil-draws/</t>
+  </si>
+  <si>
+    <t>http://www.decisionsciencenews.com/2016/03/01/most-soccer-matches-are-within-one-goal-of-1-0/</t>
+  </si>
+  <si>
+    <t>https://www.myonlinetraininghub.com/excel-histogram-charts-and-frequency-function</t>
+  </si>
+  <si>
+    <t>http://www.soccerstatistically.com/blog/2013/7/15/goal-time-analysis.html</t>
+  </si>
+  <si>
+    <t>http://fcstats.com/statistics,premier-league-england,1,5,1938.php</t>
   </si>
 </sst>
 </file>
@@ -51,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,6 +92,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,16 +122,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,6 +146,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -102,64 +176,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,36 +192,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,13 +245,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,25 +353,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,13 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,121 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,6 +436,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,19 +492,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,36 +503,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,11 +522,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,7 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,135 +559,141 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -722,6 +755,305 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Histogram Excel"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="7239000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>102235</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>161290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="10134600"/>
+          <a:ext cx="4999990" cy="2790190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="10077450"/>
+          <a:ext cx="5552440" cy="3142615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>454660</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="230505" y="4438650"/>
+          <a:ext cx="5152390" cy="4609465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76835</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>537210</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6189980" y="4505325"/>
+          <a:ext cx="5200015" cy="4523740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11445240" y="4381500"/>
+          <a:ext cx="5257165" cy="4723765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4335780" y="14287500"/>
+          <a:ext cx="4933315" cy="6304915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -982,13 +1314,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
   </cols>
@@ -1041,8 +1373,63 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8">
+      <c r="H74" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId2" display="http://www.betdevil.com/soccer/competition/USA-MLS/45/"/>
+    <hyperlink ref="A22" r:id="rId3" display="http://www.decisionsciencenews.com/2016/03/01/most-soccer-matches-are-within-one-goal-of-1-0/"/>
+    <hyperlink ref="A20" r:id="rId4" display="https://fivethirtyeight.com/features/in-126-years-english-football-has-seen-13475-nil-nil-draws/"/>
+    <hyperlink ref="K52" r:id="rId5" display="http://www.soccerstatistically.com/blog/2013/7/15/goal-time-analysis.html"/>
+    <hyperlink ref="A52" r:id="rId6" display="https://www.myonlinetraininghub.com/excel-histogram-charts-and-frequency-function"/>
+    <hyperlink ref="H74" r:id="rId7" display="http://fcstats.com/statistics,premier-league-england,1,5,1938.php"/>
+    <hyperlink ref="A16" r:id="rId8" display="https://www.windrawwin.com/statistics/full-time-scores/"/>
+    <hyperlink ref="A13" r:id="rId9" display="https://www.bettingclosed.com/predictions/american/copa-libertadores"/>
+    <hyperlink ref="A14" r:id="rId10" display="https://www.dratings.com/predictor/international-football/south-american-football/copa-libertadores-predictions/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>